--- a/Inherit/bin/Debug/net6.0-windows/Assets/Personas.xlsx
+++ b/Inherit/bin/Debug/net6.0-windows/Assets/Personas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\source\repos\Inherit\Inherit\bin\Debug\net6.0-windows\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA98F551-7BDC-4A39-91A7-E94495F68ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB4EDF3-E735-46C2-B547-47100B9C3377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-90" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>ID</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>Francisco 2 (Hijo)</t>
+  </si>
+  <si>
+    <t>Pedro</t>
   </si>
 </sst>
 </file>
@@ -412,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -467,6 +470,17 @@
         <v>4</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>3</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:B1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Inherit/bin/Debug/net6.0-windows/Assets/Personas.xlsx
+++ b/Inherit/bin/Debug/net6.0-windows/Assets/Personas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\source\repos\Inherit\Inherit\bin\Debug\net6.0-windows\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB4EDF3-E735-46C2-B547-47100B9C3377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D293B55C-ABDF-4314-A987-BCC09F55E68B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-90" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>ID</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>Pedro</t>
+  </si>
+  <si>
+    <t>David</t>
   </si>
 </sst>
 </file>
@@ -415,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -481,6 +484,17 @@
         <v>4</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>4</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:B1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Inherit/bin/Debug/net6.0-windows/Assets/Personas.xlsx
+++ b/Inherit/bin/Debug/net6.0-windows/Assets/Personas.xlsx
@@ -50,22 +50,22 @@
     <t>Fallecido</t>
   </si>
   <si>
-    <t>Armando Real</t>
+    <t>Armando (Hijo)</t>
   </si>
   <si>
     <t>false</t>
   </si>
   <si>
-    <t>Mari carmen parrón</t>
-  </si>
-  <si>
-    <t>Francisco 2 (Hijo)</t>
+    <t>Carmen</t>
+  </si>
+  <si>
+    <t>Luis</t>
+  </si>
+  <si>
+    <t>David</t>
   </si>
   <si>
     <t>Pedro</t>
-  </si>
-  <si>
-    <t>David</t>
   </si>
 </sst>
 </file>
@@ -442,7 +442,7 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>3</v>
@@ -453,7 +453,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>5</v>
@@ -464,7 +464,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>6</v>
@@ -475,7 +475,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>7</v>
@@ -486,7 +486,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>8</v>

--- a/Inherit/bin/Debug/net6.0-windows/Assets/Personas.xlsx
+++ b/Inherit/bin/Debug/net6.0-windows/Assets/Personas.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>ID</t>
   </si>
@@ -63,9 +63,6 @@
   </si>
   <si>
     <t>David</t>
-  </si>
-  <si>
-    <t>Pedro</t>
   </si>
 </sst>
 </file>
@@ -418,7 +415,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D1" sqref="D1:D1048576"/>
@@ -484,17 +481,6 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="0">
-        <v>5</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
   <autoFilter ref="A1:B1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Inherit/bin/Debug/net6.0-windows/Assets/Personas.xlsx
+++ b/Inherit/bin/Debug/net6.0-windows/Assets/Personas.xlsx
@@ -56,13 +56,13 @@
     <t>false</t>
   </si>
   <si>
-    <t>Carmen</t>
+    <t>Maria de los carmenes</t>
   </si>
   <si>
     <t>Luis</t>
   </si>
   <si>
-    <t>David</t>
+    <t>David El primo que nadie quiere</t>
   </si>
 </sst>
 </file>

--- a/Inherit/bin/Debug/net6.0-windows/Assets/Personas.xlsx
+++ b/Inherit/bin/Debug/net6.0-windows/Assets/Personas.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>ID</t>
   </si>
@@ -56,13 +56,22 @@
     <t>false</t>
   </si>
   <si>
-    <t>Maria de los carmenes</t>
-  </si>
-  <si>
-    <t>Luis</t>
+    <t>Maria de los carmenes (Hija)</t>
+  </si>
+  <si>
+    <t>Luis (Hijo)</t>
   </si>
   <si>
     <t>David El primo que nadie quiere</t>
+  </si>
+  <si>
+    <t>Juan</t>
+  </si>
+  <si>
+    <t>Héctor (Heredero)</t>
+  </si>
+  <si>
+    <t>Ana (Prima)</t>
   </si>
 </sst>
 </file>
@@ -415,7 +424,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D1" sqref="D1:D1048576"/>
@@ -481,6 +490,39 @@
         <v>4</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>7</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:B1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Inherit/bin/Debug/net6.0-windows/Assets/Personas.xlsx
+++ b/Inherit/bin/Debug/net6.0-windows/Assets/Personas.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>ID</t>
   </si>
@@ -48,30 +48,6 @@
   </si>
   <si>
     <t>Fallecido</t>
-  </si>
-  <si>
-    <t>Armando (Hijo)</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>Maria de los carmenes (Hija)</t>
-  </si>
-  <si>
-    <t>Luis (Hijo)</t>
-  </si>
-  <si>
-    <t>David El primo que nadie quiere</t>
-  </si>
-  <si>
-    <t>Juan</t>
-  </si>
-  <si>
-    <t>Héctor (Heredero)</t>
-  </si>
-  <si>
-    <t>Ana (Prima)</t>
   </si>
 </sst>
 </file>
@@ -424,7 +400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D1" sqref="D1:D1048576"/>
@@ -446,83 +422,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
-        <v>2</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0">
-        <v>3</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
-        <v>4</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0">
-        <v>5</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0">
-        <v>6</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0">
-        <v>7</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
   <autoFilter ref="A1:B1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Inherit/bin/Debug/net6.0-windows/Assets/Personas.xlsx
+++ b/Inherit/bin/Debug/net6.0-windows/Assets/Personas.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>ID</t>
   </si>
@@ -48,6 +48,18 @@
   </si>
   <si>
     <t>Fallecido</t>
+  </si>
+  <si>
+    <t>Persona 1</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>Persona 2</t>
+  </si>
+  <si>
+    <t>Tia Abuela Gladis</t>
   </si>
 </sst>
 </file>
@@ -400,7 +412,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D1" sqref="D1:D1048576"/>
@@ -422,6 +434,39 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="0">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:B1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
